--- a/biology/Médecine/1586_en_santé_et_médecine/1586_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1586_en_santé_et_médecine/1586_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1586_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1586_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1586 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1586_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1586_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Timothy Bright fait imprimer à Londres, chez Thomas Vautrollier (en), son Treatise of Melancholy[1].
-Jacques Guillemeau fait imprimer à Paris, chez Jean Charron, son Anatomie universelle du corps humain en tables methodiques[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Timothy Bright fait imprimer à Londres, chez Thomas Vautrollier (en), son Treatise of Melancholy.
+Jacques Guillemeau fait imprimer à Paris, chez Jean Charron, son Anatomie universelle du corps humain en tables methodiques.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1586_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1586_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une épidémie de typhus se déclare à Exeter[3].
-Rodrigo Lopez devient le médecin d'Élisabeth Ire, qu'il sera plus tard accusé d'avoir empoisonnée[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une épidémie de typhus se déclare à Exeter.
+Rodrigo Lopez devient le médecin d'Élisabeth Ire, qu'il sera plus tard accusé d'avoir empoisonnée.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1586_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1586_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Théophraste Renaudot (mort en 1653), journaliste, médecin et philanthrope français[5].
-Vers 1586 : Guy de La Brosse (mort en 1641), botaniste et médecin français[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Théophraste Renaudot (mort en 1653), journaliste, médecin et philanthrope français.
+Vers 1586 : Guy de La Brosse (mort en 1641), botaniste et médecin français.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1586_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1586_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,11 +622,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>22 janvier : Louis Duret (né en 1527), « l'un des plus célèbres médecins de son temps[7] ».
-29 mai : Adam Lonitzer (né en 1528), botaniste, naturaliste et médecin allemand[8].
-Pierre Tolet (né en 1502), doyen de la faculté de médecine de Lyon et médecin de l'Hôtel-Dieu, traducteur de Paul d'Égine en français[9],[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22 janvier : Louis Duret (né en 1527), « l'un des plus célèbres médecins de son temps ».
+29 mai : Adam Lonitzer (né en 1528), botaniste, naturaliste et médecin allemand.
+Pierre Tolet (né en 1502), doyen de la faculté de médecine de Lyon et médecin de l'Hôtel-Dieu, traducteur de Paul d'Égine en français,.</t>
         </is>
       </c>
     </row>
